--- a/results.xlsx
+++ b/results.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\OneDrive - The Ohio State University\research\OSU\2021-07 Differential privacy\privacy_ga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D044843C-6004-4CB3-BE97-3F0DD87DFBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9247B3A-64CF-411C-86B6-8431C8FEA55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="problem 1" sheetId="1" r:id="rId1"/>
+    <sheet name="original" sheetId="4" r:id="rId1"/>
+    <sheet name="set coverage" sheetId="2" r:id="rId2"/>
+    <sheet name="max coverage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,45 +27,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
-    <t>Model 1: set coverage</t>
+    <t>predicate</t>
   </si>
   <si>
-    <t>Coverage</t>
+    <t>voting age (2) * ethnicity (2) * race(7)</t>
   </si>
   <si>
-    <t>Exact</t>
+    <t>coverage</t>
   </si>
   <si>
-    <t>Risk</t>
+    <t>k</t>
   </si>
   <si>
-    <t>Time(s)</t>
+    <t>ethnicity (2) * race(7)</t>
   </si>
   <si>
-    <t xml:space="preserve">Setting: </t>
+    <t>race(7)</t>
   </si>
   <si>
-    <t>tract level (283); voting age (2) * ethnicity (2) * race(7)</t>
+    <t>MAPE</t>
   </si>
   <si>
-    <t>Heuristics</t>
+    <t>risk-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Disclosure risk without protection: </t>
-  </si>
-  <si>
-    <t>Model 2: max coverage (p=0.15IK)</t>
+    <t>risk-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -94,31 +92,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -129,6 +160,33 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}" name="Table2" displayName="Table2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+  <autoFilter ref="A1:C4" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6B71ADEB-FDAE-4E40-A387-1B9FD5672593}" name="predicate" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{37CA440C-D3F1-493D-BC1E-A42480293A62}" name="risk-1" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{CB1FBEE8-7F44-4CFA-8FF3-31D6226794E1}" name="risk-2" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+  <autoFilter ref="A1:F19" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E93EEBB1-1ABA-4614-9534-4025000E8E79}" name="predicate" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{C5F5D603-C33F-4A2A-A480-A7622661CA75}" name="k" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{57777C39-F7C0-470F-9909-328B2220997B}" name="coverage" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{B1DB2743-AFA5-4F21-8A6A-E67F628495F4}" name="risk-1" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{03BB7C5E-3C1C-4E8B-BC60-8638B6C6016C}" name="risk-2" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{FE9DF15E-3794-4150-86AA-BE691124EBA1}" name="MAPE" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,149 +451,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B2CBC8-359E-4899-B9EA-5618EEAF0707}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="3"/>
-    <col min="3" max="3" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" style="3"/>
-    <col min="6" max="6" width="8.7265625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="33.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.166738423852585</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8.60160965794768E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.15656620222683101</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8.0985915492957694E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9.4117372981352601E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.1750503018108599E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A301A827-400A-476B-933A-196F997189D0}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.238514831170311</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.5447873653804599E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6.5705025325371494E-2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>51.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6.74797200250732E-2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>30.9</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.17483467884932299</v>
-      </c>
-      <c r="D8" s="4">
-        <v>65.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.17233420789452999</v>
-      </c>
-      <c r="D9" s="3">
-        <v>48.8</v>
-      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA9A1EB-3013-40BD-AB5A-540B13BF4EC6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\OneDrive - The Ohio State University\research\OSU\2021-07 Differential privacy\privacy_ga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9247B3A-64CF-411C-86B6-8431C8FEA55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF21719A-DE0B-4BB8-BA3F-27635443F2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="4" r:id="rId1"/>
@@ -114,30 +114,30 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -163,27 +163,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}" name="Table2" displayName="Table2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}" name="Table2" displayName="Table2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:C4" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6B71ADEB-FDAE-4E40-A387-1B9FD5672593}" name="predicate" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{37CA440C-D3F1-493D-BC1E-A42480293A62}" name="risk-1" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{CB1FBEE8-7F44-4CFA-8FF3-31D6226794E1}" name="risk-2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6B71ADEB-FDAE-4E40-A387-1B9FD5672593}" name="predicate" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{37CA440C-D3F1-493D-BC1E-A42480293A62}" name="risk-1" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CB1FBEE8-7F44-4CFA-8FF3-31D6226794E1}" name="risk-2" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F19" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E93EEBB1-1ABA-4614-9534-4025000E8E79}" name="predicate" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{C5F5D603-C33F-4A2A-A480-A7622661CA75}" name="k" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{57777C39-F7C0-470F-9909-328B2220997B}" name="coverage" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{B1DB2743-AFA5-4F21-8A6A-E67F628495F4}" name="risk-1" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{03BB7C5E-3C1C-4E8B-BC60-8638B6C6016C}" name="risk-2" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{FE9DF15E-3794-4150-86AA-BE691124EBA1}" name="MAPE" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{E93EEBB1-1ABA-4614-9534-4025000E8E79}" name="predicate" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C5F5D603-C33F-4A2A-A480-A7622661CA75}" name="k" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{57777C39-F7C0-470F-9909-328B2220997B}" name="coverage" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{B1DB2743-AFA5-4F21-8A6A-E67F628495F4}" name="risk-1" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{03BB7C5E-3C1C-4E8B-BC60-8638B6C6016C}" name="risk-2" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{FE9DF15E-3794-4150-86AA-BE691124EBA1}" name="MAPE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -547,7 +547,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>3.5447873653804599E-2</v>
+        <v>3.5476692399612798E-2</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -604,7 +604,9 @@
         <v>2</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -616,7 +618,9 @@
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -626,7 +630,9 @@
         <v>2</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -638,7 +644,9 @@
         <v>1</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -648,7 +656,9 @@
         <v>2</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -661,8 +671,12 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2">
+        <v>2.5116672512904701E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -672,7 +686,9 @@
         <v>2</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -684,7 +700,9 @@
         <v>1</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -694,7 +712,9 @@
         <v>2</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -706,7 +726,9 @@
         <v>1</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -716,7 +738,9 @@
         <v>2</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -730,7 +754,9 @@
         <v>1</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -740,7 +766,9 @@
         <v>2</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -752,7 +780,9 @@
         <v>1</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -762,7 +792,9 @@
         <v>2</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -774,7 +806,9 @@
         <v>1</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -784,7 +818,9 @@
         <v>2</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\OneDrive - The Ohio State University\research\OSU\2021-07 Differential privacy\privacy_ga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF21719A-DE0B-4BB8-BA3F-27635443F2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847F3388-9265-4489-8E31-BB1373EF3505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -753,7 +753,9 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>3.0641147798271502E-2</v>
+      </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\OneDrive - The Ohio State University\research\OSU\2021-07 Differential privacy\privacy_ga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847F3388-9265-4489-8E31-BB1373EF3505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DE537D-DE0D-4CF0-964C-0C95F006D609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>predicate</t>
   </si>
@@ -47,13 +47,16 @@
     <t>race(7)</t>
   </si>
   <si>
-    <t>MAPE</t>
-  </si>
-  <si>
     <t>risk-1</t>
   </si>
   <si>
     <t>risk-2</t>
+  </si>
+  <si>
+    <t>SMAPE</t>
+  </si>
+  <si>
+    <t>budget</t>
   </si>
 </sst>
 </file>
@@ -92,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -100,11 +103,43 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="22">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -163,27 +198,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}" name="Table2" displayName="Table2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}" name="Table2" displayName="Table2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:C4" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6B71ADEB-FDAE-4E40-A387-1B9FD5672593}" name="predicate" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{37CA440C-D3F1-493D-BC1E-A42480293A62}" name="risk-1" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{CB1FBEE8-7F44-4CFA-8FF3-31D6226794E1}" name="risk-2" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{6B71ADEB-FDAE-4E40-A387-1B9FD5672593}" name="predicate" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{37CA440C-D3F1-493D-BC1E-A42480293A62}" name="risk-1" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{CB1FBEE8-7F44-4CFA-8FF3-31D6226794E1}" name="risk-2" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:F19" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E93EEBB1-1ABA-4614-9534-4025000E8E79}" name="predicate" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{C5F5D603-C33F-4A2A-A480-A7622661CA75}" name="k" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{57777C39-F7C0-470F-9909-328B2220997B}" name="coverage" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B1DB2743-AFA5-4F21-8A6A-E67F628495F4}" name="risk-1" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{03BB7C5E-3C1C-4E8B-BC60-8638B6C6016C}" name="risk-2" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{FE9DF15E-3794-4150-86AA-BE691124EBA1}" name="MAPE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E93EEBB1-1ABA-4614-9534-4025000E8E79}" name="predicate" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{C5F5D603-C33F-4A2A-A480-A7622661CA75}" name="k" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{57777C39-F7C0-470F-9909-328B2220997B}" name="coverage" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{B1DB2743-AFA5-4F21-8A6A-E67F628495F4}" name="risk-1" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{03BB7C5E-3C1C-4E8B-BC60-8638B6C6016C}" name="risk-2" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{FE9DF15E-3794-4150-86AA-BE691124EBA1}" name="SMAPE" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{671D8403-D8AF-4EE3-B33D-F179EAAEE3CE}" name="Table14" displayName="Table14" ref="A1:G19" totalsRowShown="0" headerRowDxfId="8" dataDxfId="1">
+  <autoFilter ref="A1:G19" xr:uid="{671D8403-D8AF-4EE3-B33D-F179EAAEE3CE}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{FD3BB01E-F47A-41F5-8BD6-3F38E6DEA826}" name="predicate" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{4A03B058-2E7E-4EC3-AB55-24080DB86909}" name="k" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{42A946DE-7510-4359-AE7B-24E80AEED93D}" name="coverage" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{64FFB0BC-B11A-4AC6-A1D0-AE11BE6553DE}" name="budget" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{B88DAAFD-A20A-4D18-A820-73A65EFE744B}" name="risk-1" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{8C802608-B747-4E3E-AC0C-0EA9B064CC29}" name="risk-2" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{830E7185-4C0C-4813-86A7-DBCF93F7867A}" name="SMAPE" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -470,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -547,7 +598,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -570,13 +621,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -590,12 +641,14 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>3.5476692399612798E-2</v>
+        <v>8.0435161409087005E-2</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>8.7903062622176398E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -603,11 +656,15 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>7.8067757973423205E-2</v>
+      </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>9.89236600009058E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -617,11 +674,15 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>5.0122813879065302E-2</v>
+      </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>0.15027313912694801</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -629,11 +690,15 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>4.80887763150687E-2</v>
+      </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>0.17359379391952401</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -643,11 +708,15 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>3.5476692399612798E-2</v>
+      </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>0.19592546474452699</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
@@ -655,11 +724,15 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>3.4467426089457097E-2</v>
+      </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>0.23328700586173601</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -672,12 +745,14 @@
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>2.5116672512904701E-2</v>
+        <v>6.4764913656770104E-2</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>0.11930169960207899</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -685,11 +760,15 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>6.2010104661130397E-2</v>
+      </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>0.13333835735587199</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
@@ -699,11 +778,15 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>3.67138904511786E-2</v>
+      </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>0.197141106495476</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
@@ -711,11 +794,15 @@
       <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>3.4605873141493299E-2</v>
+      </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>0.217641389006546</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
@@ -725,11 +812,15 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>2.5116672512904701E-2</v>
+      </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>0.249667094765121</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
@@ -737,11 +828,15 @@
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>2.4226573865997299E-2</v>
+      </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>0.279596696908194</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -754,12 +849,14 @@
         <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>3.0641147798271502E-2</v>
+        <v>4.9598373005973598E-2</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>0.102671771175548</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
@@ -767,11 +864,15 @@
       <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>4.8851491861905502E-2</v>
+      </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>0.13723396353404099</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
@@ -781,11 +882,15 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>3.3659502390868498E-2</v>
+      </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>0.210972892843864</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
@@ -793,11 +898,15 @@
       <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>3.2441068420356003E-2</v>
+      </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>0.234710616589237</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
@@ -807,11 +916,15 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>3.0641147798271502E-2</v>
+      </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <v>0.26061472234037297</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
@@ -819,11 +932,15 @@
       <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>2.85784333427084E-2</v>
+      </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>0.26593610416325397</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -836,14 +953,267 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA9A1EB-3013-40BD-AB5A-540B13BF4EC6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.90625" customWidth="1"/>
+    <col min="3" max="4" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\OneDrive - The Ohio State University\research\OSU\2021-07 Differential privacy\privacy_ga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DE537D-DE0D-4CF0-964C-0C95F006D609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EC0A5B-4705-4D73-8AAF-9F9845AC8F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="4" r:id="rId1"/>
     <sheet name="set coverage" sheetId="2" r:id="rId2"/>
-    <sheet name="max coverage" sheetId="3" r:id="rId3"/>
+    <sheet name="max coverage" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>predicate</t>
   </si>
@@ -56,7 +56,16 @@
     <t>SMAPE</t>
   </si>
   <si>
-    <t>budget</t>
+    <t>\</t>
+  </si>
+  <si>
+    <t>penalized MAPE (objective)</t>
+  </si>
+  <si>
+    <t># of at-risk</t>
+  </si>
+  <si>
+    <t># of cells with at-risk</t>
   </si>
 </sst>
 </file>
@@ -66,10 +75,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -103,43 +118,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -153,6 +137,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -166,6 +151,21 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -198,45 +198,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}" name="Table2" displayName="Table2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}" name="Table2" displayName="Table2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:C4" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6B71ADEB-FDAE-4E40-A387-1B9FD5672593}" name="predicate" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{37CA440C-D3F1-493D-BC1E-A42480293A62}" name="risk-1" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{CB1FBEE8-7F44-4CFA-8FF3-31D6226794E1}" name="risk-2" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{6B71ADEB-FDAE-4E40-A387-1B9FD5672593}" name="predicate" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{37CA440C-D3F1-493D-BC1E-A42480293A62}" name="risk-1" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{CB1FBEE8-7F44-4CFA-8FF3-31D6226794E1}" name="risk-2" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}" name="Table1" displayName="Table1" ref="A1:F19" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:F19" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E93EEBB1-1ABA-4614-9534-4025000E8E79}" name="predicate" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{C5F5D603-C33F-4A2A-A480-A7622661CA75}" name="k" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{57777C39-F7C0-470F-9909-328B2220997B}" name="coverage" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{B1DB2743-AFA5-4F21-8A6A-E67F628495F4}" name="risk-1" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{03BB7C5E-3C1C-4E8B-BC60-8638B6C6016C}" name="risk-2" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{FE9DF15E-3794-4150-86AA-BE691124EBA1}" name="SMAPE" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AA6A43C7-8A27-4791-8FD6-33C8F1924E0B}" name="Table5" displayName="Table5" ref="F1:H4" totalsRowShown="0">
+  <autoFilter ref="F1:H4" xr:uid="{AA6A43C7-8A27-4791-8FD6-33C8F1924E0B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{037CE74B-7354-4D5F-B157-96B1ED2554D7}" name="k"/>
+    <tableColumn id="2" xr3:uid="{0F896A6D-F7D0-4458-9098-182F8E6E92E5}" name="# of at-risk"/>
+    <tableColumn id="3" xr3:uid="{72EB4576-DE88-43DE-8B03-6F93F1F24F30}" name="# of cells with at-risk"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{671D8403-D8AF-4EE3-B33D-F179EAAEE3CE}" name="Table14" displayName="Table14" ref="A1:G19" totalsRowShown="0" headerRowDxfId="8" dataDxfId="1">
-  <autoFilter ref="A1:G19" xr:uid="{671D8403-D8AF-4EE3-B33D-F179EAAEE3CE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G19" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FD3BB01E-F47A-41F5-8BD6-3F38E6DEA826}" name="predicate" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{4A03B058-2E7E-4EC3-AB55-24080DB86909}" name="k" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{42A946DE-7510-4359-AE7B-24E80AEED93D}" name="coverage" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{64FFB0BC-B11A-4AC6-A1D0-AE11BE6553DE}" name="budget" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{B88DAAFD-A20A-4D18-A820-73A65EFE744B}" name="risk-1" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{8C802608-B747-4E3E-AC0C-0EA9B064CC29}" name="risk-2" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{830E7185-4C0C-4813-86A7-DBCF93F7867A}" name="SMAPE" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E93EEBB1-1ABA-4614-9534-4025000E8E79}" name="predicate" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C5F5D603-C33F-4A2A-A480-A7622661CA75}" name="k" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{57777C39-F7C0-470F-9909-328B2220997B}" name="coverage" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{0831C762-6C93-46E2-86CB-6BA872CA0846}" name="penalized MAPE (objective)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{B1DB2743-AFA5-4F21-8A6A-E67F628495F4}" name="risk-1" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{03BB7C5E-3C1C-4E8B-BC60-8638B6C6016C}" name="risk-2" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{FE9DF15E-3794-4150-86AA-BE691124EBA1}" name="SMAPE" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{59AF9031-C006-404D-8250-2B128413C736}" name="Table4" displayName="Table4" ref="A1:G55" totalsRowShown="0">
+  <autoFilter ref="A1:G55" xr:uid="{59AF9031-C006-404D-8250-2B128413C736}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F5D0B863-4943-4DCE-A0AA-576A45FA1EF6}" name="predicate"/>
+    <tableColumn id="2" xr3:uid="{F5E81DB3-E4D4-487D-9DA8-6F21DD906986}" name="k"/>
+    <tableColumn id="3" xr3:uid="{2FD9EF43-7D1D-4E75-9218-B6FC0B9F80CF}" name="coverage"/>
+    <tableColumn id="6" xr3:uid="{782B4395-A5A1-43E9-982A-37E2CAEFAC07}" name="penalized MAPE (objective)" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{C43AB37C-685F-4E74-A37A-2C3D0E815DA8}" name="risk-1" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{C3A7C78B-879A-4F82-BBA2-13CB6A0187EE}" name="risk-2" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{6A2AA3C3-448F-497B-87BF-2195BBEF9EBD}" name="SMAPE" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -503,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B2CBC8-359E-4899-B9EA-5618EEAF0707}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,9 +527,11 @@
     <col min="1" max="1" width="33.08984375" customWidth="1"/>
     <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,8 +541,17 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -537,8 +561,11 @@
       <c r="C2" s="2">
         <v>8.60160965794768E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -548,8 +575,11 @@
       <c r="C3" s="2">
         <v>8.0985915492957694E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -559,58 +589,64 @@
       <c r="C4" s="2">
         <v>4.1750503018108599E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A301A827-400A-476B-933A-196F997189D0}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" width="32.90625" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
     <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,17 +656,20 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -641,32 +680,38 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
+        <v>9.3149596234555807E-2</v>
+      </c>
+      <c r="E2" s="2">
         <v>8.0435161409087005E-2</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
       <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
         <v>8.7903062622176398E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="2">
+        <v>0.48891861406034998</v>
+      </c>
+      <c r="E3" s="2">
         <v>7.8067757973423205E-2</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
       <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
         <v>9.89236600009058E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>2</v>
@@ -675,32 +720,38 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
+        <v>0.16516249175566899</v>
+      </c>
+      <c r="E4" s="2">
         <v>5.0122813879065302E-2</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
       <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>0.15027313912694801</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="2">
+        <v>1.74883853991247</v>
+      </c>
+      <c r="E5" s="2">
         <v>4.80887763150687E-2</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
       <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
         <v>0.17359379391952401</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>3</v>
@@ -709,32 +760,38 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
+        <v>0.357112905666638</v>
+      </c>
+      <c r="E6" s="2">
         <v>3.5476692399612798E-2</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
       <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
         <v>0.19592546474452699</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>4.0334536147400302</v>
+      </c>
+      <c r="E7" s="2">
         <v>3.4467426089457097E-2</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
       <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
         <v>0.23328700586173601</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -744,33 +801,39 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
         <v>6.4764913656770104E-2</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
       <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
         <v>0.11930169960207899</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
         <v>6.2010104661130397E-2</v>
       </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
       <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
         <v>0.13333835735587199</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>2</v>
@@ -778,33 +841,39 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
         <v>3.67138904511786E-2</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
       <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
         <v>0.197141106495476</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
         <v>3.4605873141493299E-2</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
       <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
         <v>0.217641389006546</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>3</v>
@@ -812,33 +881,39 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2">
         <v>2.5116672512904701E-2</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
       <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
         <v>0.249667094765121</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2">
         <v>2.4226573865997299E-2</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
       <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
         <v>0.279596696908194</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,33 +923,39 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2">
         <v>4.9598373005973598E-2</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
       <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
         <v>0.102671771175548</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2">
         <v>4.8851491861905502E-2</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
       <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
         <v>0.13723396353404099</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>2</v>
@@ -882,33 +963,39 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2">
         <v>3.3659502390868498E-2</v>
       </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
       <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
         <v>0.210972892843864</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2">
         <v>3.2441068420356003E-2</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
       <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
         <v>0.234710616589237</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>3</v>
@@ -916,33 +1003,40 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2">
         <v>3.0641147798271502E-2</v>
       </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
       <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
         <v>0.26061472234037297</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2">
         <v>2.85784333427084E-2</v>
       </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
       <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
         <v>0.26593610416325397</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
@@ -952,268 +1046,606 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA9A1EB-3013-40BD-AB5A-540B13BF4EC6}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836B1424-F873-4785-84D3-2D104A420DD8}">
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.90625" customWidth="1"/>
-    <col min="3" max="4" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="D4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3">
+      <c r="D6" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D12" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D15" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3.62264765445472E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.19206379642886201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D18" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3.5083197275066903E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.195411708763641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D21" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D22" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D24" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D27" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D28" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D30" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D31" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B32">
         <v>3</v>
       </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D33" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D34" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2.6046038507025498E-2</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.243413553361292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D36" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D37" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2.50304719361947E-2</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.24196482575418399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D39" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D40" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D42" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D43" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D45" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D46" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D48" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D49" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D51" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D52" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3.0910642033521101E-2</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.23930655149765401</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D54" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="D55" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>3.08428800905798E-2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0.23615446975283899</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\OneDrive - The Ohio State University\research\OSU\2021-07 Differential privacy\privacy_ga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EC0A5B-4705-4D73-8AAF-9F9845AC8F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5262EA79-F7E7-4627-B0D1-AE82A2900813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>predicate</t>
   </si>
@@ -56,9 +56,6 @@
     <t>SMAPE</t>
   </si>
   <si>
-    <t>\</t>
-  </si>
-  <si>
     <t>penalized MAPE (objective)</t>
   </si>
   <si>
@@ -66,6 +63,27 @@
   </si>
   <si>
     <t># of cells with at-risk</t>
+  </si>
+  <si>
+    <t>p_mape</t>
+  </si>
+  <si>
+    <t>risk_1</t>
+  </si>
+  <si>
+    <t>risk_2</t>
+  </si>
+  <si>
+    <t>smape</t>
+  </si>
+  <si>
+    <t>VER</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -110,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -119,35 +137,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="17">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -166,6 +178,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -198,12 +216,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}" name="Table2" displayName="Table2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}" name="Table2" displayName="Table2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:C4" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6B71ADEB-FDAE-4E40-A387-1B9FD5672593}" name="predicate" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{37CA440C-D3F1-493D-BC1E-A42480293A62}" name="risk-1" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{CB1FBEE8-7F44-4CFA-8FF3-31D6226794E1}" name="risk-2" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{6B71ADEB-FDAE-4E40-A387-1B9FD5672593}" name="predicate" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{37CA440C-D3F1-493D-BC1E-A42480293A62}" name="risk-1" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{CB1FBEE8-7F44-4CFA-8FF3-31D6226794E1}" name="risk-2" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -222,16 +240,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="A1:G19" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E93EEBB1-1ABA-4614-9534-4025000E8E79}" name="predicate" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C5F5D603-C33F-4A2A-A480-A7622661CA75}" name="k" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{57777C39-F7C0-470F-9909-328B2220997B}" name="coverage" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{0831C762-6C93-46E2-86CB-6BA872CA0846}" name="penalized MAPE (objective)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B1DB2743-AFA5-4F21-8A6A-E67F628495F4}" name="risk-1" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{03BB7C5E-3C1C-4E8B-BC60-8638B6C6016C}" name="risk-2" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{FE9DF15E-3794-4150-86AA-BE691124EBA1}" name="SMAPE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E93EEBB1-1ABA-4614-9534-4025000E8E79}" name="k" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{C5F5D603-C33F-4A2A-A480-A7622661CA75}" name="coverage" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{57777C39-F7C0-470F-9909-328B2220997B}" name="predicate" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{0831C762-6C93-46E2-86CB-6BA872CA0846}" name="p_mape" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{B1DB2743-AFA5-4F21-8A6A-E67F628495F4}" name="risk_1" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{03BB7C5E-3C1C-4E8B-BC60-8638B6C6016C}" name="risk_2" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{FE9DF15E-3794-4150-86AA-BE691124EBA1}" name="smape" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -245,9 +263,9 @@
     <tableColumn id="2" xr3:uid="{F5E81DB3-E4D4-487D-9DA8-6F21DD906986}" name="k"/>
     <tableColumn id="3" xr3:uid="{2FD9EF43-7D1D-4E75-9218-B6FC0B9F80CF}" name="coverage"/>
     <tableColumn id="6" xr3:uid="{782B4395-A5A1-43E9-982A-37E2CAEFAC07}" name="penalized MAPE (objective)" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{C43AB37C-685F-4E74-A37A-2C3D0E815DA8}" name="risk-1" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{C3A7C78B-879A-4F82-BBA2-13CB6A0187EE}" name="risk-2" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{6A2AA3C3-448F-497B-87BF-2195BBEF9EBD}" name="SMAPE" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{C43AB37C-685F-4E74-A37A-2C3D0E815DA8}" name="risk-1" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C3A7C78B-879A-4F82-BBA2-13CB6A0187EE}" name="risk-2" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{6A2AA3C3-448F-497B-87BF-2195BBEF9EBD}" name="SMAPE" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -545,10 +563,10 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -631,408 +649,432 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A301A827-400A-476B-933A-196F997189D0}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.90625" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="25.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4">
         <v>9.3149596234555807E-2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>8.0435161409087005E-2</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
         <v>8.7903062622176398E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4">
+        <v>6.4764913656770104E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.11930169960207899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <v>4.3252971067283402E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.115341731981687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4">
         <v>0.48891861406034998</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E5" s="4">
         <v>7.8067757973423205E-2</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <v>9.89236600009058E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>6.2010104661130397E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.13333835735587199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>4.1378510342502402E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.12984238201981199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4">
         <v>0.16516249175566899</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E8" s="4">
         <v>5.0122813879065302E-2</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
         <v>0.15027313912694801</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>3.67138904511786E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.197141106495476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>2.6315193128304E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.19691474498276201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4">
         <v>1.74883853991247</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E11" s="4">
         <v>4.80887763150687E-2</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
         <v>0.17359379391952401</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <v>3.4605873141493299E-2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.217641389006546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
+        <v>2.45687881412214E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.20902540576027101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4">
         <v>0.357112905666638</v>
       </c>
-      <c r="E6" s="2">
-        <v>3.5476692399612798E-2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.19592546474452699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="E14" s="4">
+        <v>3.5466013734903303E-2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.19601119409579601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
+        <v>2.5142195314456502E-2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.249830909291889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
+        <v>1.9744297395481801E-2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.25257015892297402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4">
         <v>4.0334536147400302</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E17" s="4">
         <v>3.4467426089457097E-2</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
         <v>0.23328700586173601</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6.4764913656770104E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.11930169960207899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2">
-        <v>6.2010104661130397E-2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.13333835735587199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3.67138904511786E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.197141106495476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3.4605873141493299E-2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.217641389006546</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>3</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2.5116672512904701E-2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.249667094765121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
         <v>2.4226573865997299E-2</v>
       </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
         <v>0.279596696908194</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4.9598373005973598E-2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.102671771175548</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2">
-        <v>4.8851491861905502E-2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.13723396353404099</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2">
-        <v>3.3659502390868498E-2</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.210972892843864</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2">
-        <v>3.2441068420356003E-2</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.234710616589237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2">
-        <v>3.0641147798271502E-2</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.26061472234037297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.85784333427084E-2</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.26593610416325397</v>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4">
+        <v>1.81658694301268E-2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.26029624477496799</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +1091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836B1424-F873-4785-84D3-2D104A420DD8}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1071,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\OneDrive - The Ohio State University\research\OSU\2021-07 Differential privacy\privacy_ga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\OneDrive - The Ohio State University\research\OSU\2021-07 Differential privacy\privacy-framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5262EA79-F7E7-4627-B0D1-AE82A2900813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A212C7C3-6B39-4996-8088-BC363D9F597A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="18">
   <si>
     <t>predicate</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>risk-2</t>
-  </si>
-  <si>
-    <t>SMAPE</t>
-  </si>
-  <si>
-    <t>penalized MAPE (objective)</t>
   </si>
   <si>
     <t># of at-risk</t>
@@ -84,6 +78,9 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>u</t>
   </si>
 </sst>
 </file>
@@ -128,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -137,14 +134,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -168,22 +177,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -216,12 +213,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}" name="Table2" displayName="Table2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}" name="Table2" displayName="Table2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:C4" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6B71ADEB-FDAE-4E40-A387-1B9FD5672593}" name="predicate" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{37CA440C-D3F1-493D-BC1E-A42480293A62}" name="risk-1" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{CB1FBEE8-7F44-4CFA-8FF3-31D6226794E1}" name="risk-2" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{6B71ADEB-FDAE-4E40-A387-1B9FD5672593}" name="predicate" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{37CA440C-D3F1-493D-BC1E-A42480293A62}" name="risk-1" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{CB1FBEE8-7F44-4CFA-8FF3-31D6226794E1}" name="risk-2" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -240,32 +237,33 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0" dataDxfId="12">
   <autoFilter ref="A1:G19" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E93EEBB1-1ABA-4614-9534-4025000E8E79}" name="k" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{C5F5D603-C33F-4A2A-A480-A7622661CA75}" name="coverage" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{57777C39-F7C0-470F-9909-328B2220997B}" name="predicate" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{0831C762-6C93-46E2-86CB-6BA872CA0846}" name="p_mape" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B1DB2743-AFA5-4F21-8A6A-E67F628495F4}" name="risk_1" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{03BB7C5E-3C1C-4E8B-BC60-8638B6C6016C}" name="risk_2" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{FE9DF15E-3794-4150-86AA-BE691124EBA1}" name="smape" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{57777C39-F7C0-470F-9909-328B2220997B}" name="predicate" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{0831C762-6C93-46E2-86CB-6BA872CA0846}" name="p_mape" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{B1DB2743-AFA5-4F21-8A6A-E67F628495F4}" name="risk_1" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{03BB7C5E-3C1C-4E8B-BC60-8638B6C6016C}" name="risk_2" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{FE9DF15E-3794-4150-86AA-BE691124EBA1}" name="smape" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{59AF9031-C006-404D-8250-2B128413C736}" name="Table4" displayName="Table4" ref="A1:G55" totalsRowShown="0">
-  <autoFilter ref="A1:G55" xr:uid="{59AF9031-C006-404D-8250-2B128413C736}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F5D0B863-4943-4DCE-A0AA-576A45FA1EF6}" name="predicate"/>
-    <tableColumn id="2" xr3:uid="{F5E81DB3-E4D4-487D-9DA8-6F21DD906986}" name="k"/>
-    <tableColumn id="3" xr3:uid="{2FD9EF43-7D1D-4E75-9218-B6FC0B9F80CF}" name="coverage"/>
-    <tableColumn id="6" xr3:uid="{782B4395-A5A1-43E9-982A-37E2CAEFAC07}" name="penalized MAPE (objective)" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{C43AB37C-685F-4E74-A37A-2C3D0E815DA8}" name="risk-1" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C3A7C78B-879A-4F82-BBA2-13CB6A0187EE}" name="risk-2" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{6A2AA3C3-448F-497B-87BF-2195BBEF9EBD}" name="SMAPE" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{59AF9031-C006-404D-8250-2B128413C736}" name="Table4" displayName="Table4" ref="A1:H109" totalsRowShown="0">
+  <autoFilter ref="A1:H109" xr:uid="{59AF9031-C006-404D-8250-2B128413C736}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F5D0B863-4943-4DCE-A0AA-576A45FA1EF6}" name="k"/>
+    <tableColumn id="2" xr3:uid="{F5E81DB3-E4D4-487D-9DA8-6F21DD906986}" name="coverage"/>
+    <tableColumn id="3" xr3:uid="{2FD9EF43-7D1D-4E75-9218-B6FC0B9F80CF}" name="u"/>
+    <tableColumn id="6" xr3:uid="{782B4395-A5A1-43E9-982A-37E2CAEFAC07}" name="predicate" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{C43AB37C-685F-4E74-A37A-2C3D0E815DA8}" name="p_mape" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{C3A7C78B-879A-4F82-BBA2-13CB6A0187EE}" name="risk_1" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{6A2AA3C3-448F-497B-87BF-2195BBEF9EBD}" name="risk_2" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{4EF3F069-95C9-4C0C-B801-C9323CC8A465}" name="smape" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -563,10 +561,10 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -649,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A301A827-400A-476B-933A-196F997189D0}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -675,16 +673,16 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -695,18 +693,18 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3">
         <v>9.3149596234555807E-2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>8.0435161409087005E-2</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
         <v>8.7903062622176398E-2</v>
       </c>
     </row>
@@ -718,16 +716,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
         <v>6.4764913656770104E-2</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
         <v>0.11930169960207899</v>
       </c>
     </row>
@@ -739,16 +737,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
         <v>4.3252971067283402E-2</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
         <v>0.115341731981687</v>
       </c>
     </row>
@@ -760,18 +758,18 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3">
         <v>0.48891861406034998</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>7.8067757973423205E-2</v>
       </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
         <v>9.89236600009058E-2</v>
       </c>
     </row>
@@ -783,16 +781,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
         <v>6.2010104661130397E-2</v>
       </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <v>0.13333835735587199</v>
       </c>
     </row>
@@ -804,16 +802,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
         <v>4.1378510342502402E-2</v>
       </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
         <v>0.12984238201981199</v>
       </c>
     </row>
@@ -825,18 +823,18 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3">
         <v>0.16516249175566899</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>5.0122813879065302E-2</v>
       </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>0.15027313912694801</v>
       </c>
     </row>
@@ -848,16 +846,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
         <v>3.67138904511786E-2</v>
       </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>0.197141106495476</v>
       </c>
     </row>
@@ -869,16 +867,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
         <v>2.6315193128304E-2</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>0.19691474498276201</v>
       </c>
     </row>
@@ -890,18 +888,18 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3">
         <v>1.74883853991247</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>4.80887763150687E-2</v>
       </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
         <v>0.17359379391952401</v>
       </c>
     </row>
@@ -913,16 +911,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
         <v>3.4605873141493299E-2</v>
       </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>0.217641389006546</v>
       </c>
     </row>
@@ -934,16 +932,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
         <v>2.45687881412214E-2</v>
       </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
         <v>0.20902540576027101</v>
       </c>
     </row>
@@ -955,18 +953,18 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="4">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3">
         <v>0.357112905666638</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>3.5466013734903303E-2</v>
       </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>0.19601119409579601</v>
       </c>
     </row>
@@ -978,16 +976,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <v>2.5142195314456502E-2</v>
       </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>0.249830909291889</v>
       </c>
     </row>
@@ -999,16 +997,16 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
         <v>1.9744297395481801E-2</v>
       </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
         <v>0.25257015892297402</v>
       </c>
     </row>
@@ -1020,18 +1018,18 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
         <v>4.0334536147400302</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>3.4467426089457097E-2</v>
       </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>0.23328700586173601</v>
       </c>
     </row>
@@ -1043,16 +1041,16 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
         <v>2.4226573865997299E-2</v>
       </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>0.279596696908194</v>
       </c>
     </row>
@@ -1064,16 +1062,16 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
         <v>1.81658694301268E-2</v>
       </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
         <v>0.26029624477496799</v>
       </c>
     </row>
@@ -1089,598 +1087,2637 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836B1424-F873-4785-84D3-2D104A420DD8}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
     <col min="3" max="3" width="10.26953125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D3" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D4" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>4.9999999999999899E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.118648302259265</v>
+      </c>
+      <c r="G2">
+        <v>3.7852112676056301E-2</v>
+      </c>
+      <c r="H2">
+        <v>4.8722798869068398E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>0.112706833080341</v>
+      </c>
+      <c r="G3">
+        <v>4.2002012072434598E-2</v>
+      </c>
+      <c r="H3">
+        <v>6.09296192307478E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.05</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>5.78147097501557E-2</v>
+      </c>
+      <c r="G4">
+        <v>9.5573440643863094E-3</v>
+      </c>
+      <c r="H4">
+        <v>6.8755482119757794E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>0.1</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D6" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D7" s="3">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>9.9951639149678098E-2</v>
+      </c>
+      <c r="F5">
+        <v>7.9998700303377204E-2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>8.87033416632967E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>0.1</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>6.4211958982875503E-2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.120771062116214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>4.2798898524358697E-2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.118982484543791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D9" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>0.449154201872071</v>
+      </c>
+      <c r="F8">
+        <v>7.9482440729762696E-2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>8.9677937753819201E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>6.3409295124895099E-2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.12304319823175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>4.1597997963733799E-2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.12183633803133299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>0.449154201872071</v>
+      </c>
+      <c r="F11">
+        <v>7.9482440729762696E-2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>8.9677937753819201E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>6.3409295124895099E-2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.12304319823175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>4.1597997963733799E-2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.12183633803133299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1.5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>0.449154201872071</v>
+      </c>
+      <c r="F14">
+        <v>7.9482440729762696E-2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>8.9677937753819201E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1.5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>6.3409295124895099E-2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.12304319823175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>4.1597997963733799E-2</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.12183633803133299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>0.449154201872071</v>
+      </c>
+      <c r="F17">
+        <v>7.9482440729762696E-2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>8.9677937753819201E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>6.3409295124895099E-2</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.12304319823175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>4.1597997963733799E-2</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.12183633803133299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0.05</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>4.9999999999999899E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.120464918412795</v>
+      </c>
+      <c r="G20">
+        <v>3.9989939637826898E-2</v>
+      </c>
+      <c r="H20">
+        <v>4.7709947808631602E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0.05</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>0.114953067781408</v>
+      </c>
+      <c r="G21">
+        <v>4.4265593561368201E-2</v>
+      </c>
+      <c r="H21">
+        <v>6.0236498072807197E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0.05</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>6.5564993983259101E-2</v>
+      </c>
+      <c r="G22">
+        <v>1.7102615694164901E-2</v>
+      </c>
+      <c r="H22">
+        <v>6.6435269320102797E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
         <v>0.1</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D12" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D13" s="3">
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="F23">
+        <v>8.5821372917053204E-2</v>
+      </c>
+      <c r="G23">
+        <v>7.6710261569416498E-3</v>
+      </c>
+      <c r="H23">
+        <v>8.4263451314380997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
         <v>0.1</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D15" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D16" s="3">
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>7.3159442177176404E-2</v>
+      </c>
+      <c r="G24">
+        <v>9.5573440643863094E-3</v>
+      </c>
+      <c r="H24">
+        <v>0.112700282583317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
         <v>0.1</v>
       </c>
-      <c r="E16" s="3">
-        <v>3.62264765445472E-2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.19206379642886201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D18" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D19" s="3">
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>4.48257544222617E-2</v>
+      </c>
+      <c r="G25">
+        <v>1.00603621730382E-3</v>
+      </c>
+      <c r="H25">
+        <v>0.11549751509412701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>7.5473254538372295E-2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0.102230969617419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0.5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>5.9133288404817998E-2</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0.13710804202777199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>3.9664957336919299E-2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0.134941098103425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>7.6238815076805605E-2</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0.10929261935941401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <v>6.00547646525985E-2</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0.14074186507056299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31">
+        <v>3.9570891995630401E-2</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0.14120000669302499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>1.5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>1.49999999999999</v>
+      </c>
+      <c r="F32">
+        <v>7.6909079036859507E-2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0.114650695279664</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>1.5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33">
+        <v>6.0387848954193399E-2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0.14346284811894799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>1.5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34">
+        <v>3.9775056623998502E-2</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0.141238508973803</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>1.99999999999999</v>
+      </c>
+      <c r="F35">
+        <v>7.7863259452526298E-2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0.11977658136699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36">
+        <v>6.1314053354257103E-2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0.148216658261458</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <v>3.9743226568784998E-2</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0.146575096873442</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0.05</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>5.00000000000001E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.14368081527985599</v>
+      </c>
+      <c r="G38">
+        <v>8.60160965794768E-2</v>
+      </c>
+      <c r="H38">
+        <v>4.7305207005206698E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0.05</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39">
+        <v>0.14097342518845599</v>
+      </c>
+      <c r="G39">
+        <v>8.0985915492957694E-2</v>
+      </c>
+      <c r="H39">
+        <v>5.3870118465909798E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0.05</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40">
+        <v>8.3375681258060205E-2</v>
+      </c>
+      <c r="G40">
+        <v>4.1750503018108599E-2</v>
+      </c>
+      <c r="H40">
+        <v>6.0695834203509803E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
         <v>0.1</v>
       </c>
-      <c r="E19" s="3">
-        <v>3.5083197275066903E-2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.195411708763641</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D21" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D22" s="3">
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41">
         <v>0.1</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D24" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D25" s="3">
+      <c r="F41">
+        <v>0.10596801016072301</v>
+      </c>
+      <c r="G41">
+        <v>5.5331991951710201E-2</v>
+      </c>
+      <c r="H41">
+        <v>9.3142388693077796E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
         <v>0.1</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D27" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D28" s="3">
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42">
+        <v>0.11060920323461</v>
+      </c>
+      <c r="G42">
+        <v>6.3883299798792703E-2</v>
+      </c>
+      <c r="H42">
+        <v>0.10964947969129001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
         <v>0.1</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D30" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D31" s="3">
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43">
+        <v>6.6496886456643894E-2</v>
+      </c>
+      <c r="G43">
+        <v>2.8672032193158899E-2</v>
+      </c>
+      <c r="H43">
+        <v>0.114318224174599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0.5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>0.499999999999999</v>
+      </c>
+      <c r="F44">
+        <v>4.8802513051888499E-2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.153291959966601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0.5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45">
+        <v>3.5343223291168797E-2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0.201500014382934</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0.5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46">
+        <v>2.5188400995590901E-2</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0.20256815318466601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>4.8878768108754501E-2</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0.15361092891860101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48">
+        <v>3.5323111233247502E-2</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0.20260196708775999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49">
+        <v>2.5107311558405301E-2</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0.20444436489117901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1.5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50">
+        <v>1.49999999999999</v>
+      </c>
+      <c r="F50">
+        <v>4.9216045019855298E-2</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0.15376024788238099</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1.5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51">
+        <v>3.5667688574558799E-2</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0.202805203629467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1.5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52">
+        <v>2.5174770998231899E-2</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0.20691444900389799</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53">
+        <v>1.52987363798049</v>
+      </c>
+      <c r="F53">
+        <v>4.9243945563663703E-2</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0.15369727002219999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54">
+        <v>3.5694833718685301E-2</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0.20301165046727401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55">
+        <v>2.5178509004698101E-2</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0.20711372021190699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>0.05</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56">
+        <v>5.00000000000001E-2</v>
+      </c>
+      <c r="F56">
+        <v>0.14477554749520299</v>
+      </c>
+      <c r="G56">
+        <v>8.60160965794768E-2</v>
+      </c>
+      <c r="H56">
+        <v>4.5717998124244298E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>0.05</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57">
+        <v>0.14232532422039601</v>
+      </c>
+      <c r="G57">
+        <v>8.0985915492957694E-2</v>
+      </c>
+      <c r="H57">
+        <v>5.18744574438295E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>0.05</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58">
+        <v>8.6111238955574196E-2</v>
+      </c>
+      <c r="G58">
+        <v>4.1750503018108599E-2</v>
+      </c>
+      <c r="H58">
+        <v>5.5641501019197299E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
         <v>0.1</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D33" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D34" s="3">
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59">
         <v>0.1</v>
       </c>
-      <c r="E34" s="3">
-        <v>2.6046038507025498E-2</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0.243413553361292</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D36" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D37" s="3">
+      <c r="F59">
+        <v>0.106195124873439</v>
+      </c>
+      <c r="G59">
+        <v>5.2942655935613599E-2</v>
+      </c>
+      <c r="H59">
+        <v>9.0736816978401899E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
         <v>0.1</v>
       </c>
-      <c r="E37" s="3">
-        <v>2.50304719361947E-2</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0.24196482575418399</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D39" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D40" s="3">
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60">
+        <v>0.10961736625096601</v>
+      </c>
+      <c r="G60">
+        <v>6.0110663983903398E-2</v>
+      </c>
+      <c r="H60">
+        <v>0.10664378437628901</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
         <v>0.1</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D42" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D43" s="3">
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61">
+        <v>6.8039446168027304E-2</v>
+      </c>
+      <c r="G61">
+        <v>2.96780684104627E-2</v>
+      </c>
+      <c r="H61">
+        <v>0.11099051394170199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>0.5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62">
+        <v>0.5</v>
+      </c>
+      <c r="F62">
+        <v>6.4045143472391597E-2</v>
+      </c>
+      <c r="G62">
+        <v>1.28269617706237E-2</v>
+      </c>
+      <c r="H62">
+        <v>0.14058548665552201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>0.5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63">
+        <v>5.5640273585285199E-2</v>
+      </c>
+      <c r="G63">
+        <v>1.4084507042253501E-2</v>
+      </c>
+      <c r="H63">
+        <v>0.177020517996552</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>0.5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64">
+        <v>3.49482523213311E-2</v>
+      </c>
+      <c r="G64">
+        <v>4.5271629778671999E-3</v>
+      </c>
+      <c r="H64">
+        <v>0.17904718124274299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>5.9060457321017799E-2</v>
+      </c>
+      <c r="G65">
+        <v>9.5573440643863094E-3</v>
+      </c>
+      <c r="H65">
+        <v>0.15322125731142799</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66">
+        <v>4.9937793329027098E-2</v>
+      </c>
+      <c r="G66">
+        <v>1.1569416498993901E-2</v>
+      </c>
+      <c r="H66">
+        <v>0.193467088405475</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67">
+        <v>3.2245501364968697E-2</v>
+      </c>
+      <c r="G67">
+        <v>4.0241448692152904E-3</v>
+      </c>
+      <c r="H67">
+        <v>0.193752996753596</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>1.5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68">
+        <v>1.49999999999999</v>
+      </c>
+      <c r="F68">
+        <v>5.1449273442856998E-2</v>
+      </c>
+      <c r="G68">
+        <v>2.64084507042253E-3</v>
+      </c>
+      <c r="H68">
+        <v>0.16830914038224401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>1.5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69">
+        <v>3.8652214356374899E-2</v>
+      </c>
+      <c r="G69">
+        <v>2.01207243460764E-3</v>
+      </c>
+      <c r="H69">
+        <v>0.21649596913649</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>1.5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70">
+        <v>2.6635877647453701E-2</v>
+      </c>
+      <c r="G70">
+        <v>5.0301810865191097E-4</v>
+      </c>
+      <c r="H70">
+        <v>0.206691790770022</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71">
+        <v>1.99999999999999</v>
+      </c>
+      <c r="F71">
+        <v>4.6173160035016703E-2</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0.17988763497363999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72">
+        <v>3.2987002913922203E-2</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0.22169123307531599</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73">
+        <v>2.3708498948730099E-2</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0.21578596849360801</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0.05</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74">
+        <v>0.05</v>
+      </c>
+      <c r="F74">
+        <v>0.151951875574939</v>
+      </c>
+      <c r="G74">
+        <v>8.60160965794768E-2</v>
+      </c>
+      <c r="H74">
+        <v>4.5057038340309101E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>0.05</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75">
+        <v>0.151542503873413</v>
+      </c>
+      <c r="G75">
+        <v>8.0985915492957694E-2</v>
+      </c>
+      <c r="H75">
+        <v>4.6189435826774802E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>0.05</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76">
+        <v>9.1373010776908001E-2</v>
+      </c>
+      <c r="G76">
+        <v>4.1750503018108599E-2</v>
+      </c>
+      <c r="H76">
+        <v>4.8804772330780503E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
         <v>0.1</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D45" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D46" s="3">
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77">
+        <v>9.9999999999999603E-2</v>
+      </c>
+      <c r="F77">
+        <v>0.130290862862454</v>
+      </c>
+      <c r="G77">
+        <v>8.60160965794768E-2</v>
+      </c>
+      <c r="H77">
+        <v>9.0067471862603402E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
         <v>0.1</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D48" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D49" s="3">
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78">
+        <v>0.13473906147094999</v>
+      </c>
+      <c r="G78">
+        <v>8.0985915492957694E-2</v>
+      </c>
+      <c r="H78">
+        <v>0.100838089941653</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
         <v>0.1</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D51" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D52" s="3">
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79">
+        <v>8.1547968846956198E-2</v>
+      </c>
+      <c r="G79">
+        <v>4.1750503018108599E-2</v>
+      </c>
+      <c r="H79">
+        <v>0.107032926731347</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>0.5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="F80">
+        <v>3.4283664055181698E-2</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0.19940347283722301</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>0.5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81">
+        <v>2.3914212717701298E-2</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0.25502433436730898</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>0.5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82">
+        <v>1.8924464834182499E-2</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0.257858884953094</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>3.43156864256738E-2</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0.19981828360275899</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84">
+        <v>2.3942530368053098E-2</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0.254830640813339</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85">
+        <v>1.8891352882119399E-2</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0.25780005930056799</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1.5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86">
+        <v>1.49999999999999</v>
+      </c>
+      <c r="F86">
+        <v>3.4541479495527098E-2</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0.20009961191391101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1.5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87">
+        <v>2.4277862048657901E-2</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0.25567078055173997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1.5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88">
+        <v>1.8897846922413801E-2</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0.25900298426377499</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89">
+        <v>1.99999999999999</v>
+      </c>
+      <c r="F89">
+        <v>3.4586898509358303E-2</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0.200257281504296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90">
+        <v>2.4344622179654201E-2</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0.25582916588625998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91">
+        <v>1.8914822157466801E-2</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0.25837992368645901</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>0.05</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92">
+        <v>4.9999999999999899E-2</v>
+      </c>
+      <c r="F92">
+        <v>0.15037207065418601</v>
+      </c>
+      <c r="G92">
+        <v>8.60160965794768E-2</v>
+      </c>
+      <c r="H92">
+        <v>4.5405460953150199E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>0.05</v>
+      </c>
+      <c r="D93" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93">
+        <v>0.150819713615749</v>
+      </c>
+      <c r="G93">
+        <v>8.0985915492957694E-2</v>
+      </c>
+      <c r="H93">
+        <v>4.4940992281525198E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>0.05</v>
+      </c>
+      <c r="D94" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94">
+        <v>9.0730840264631699E-2</v>
+      </c>
+      <c r="G94">
+        <v>4.1750503018108599E-2</v>
+      </c>
+      <c r="H94">
+        <v>5.12560691708904E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
         <v>0.1</v>
       </c>
-      <c r="E52" s="3">
-        <v>3.0910642033521101E-2</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0.23930655149765401</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D54" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D55" s="3">
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95">
         <v>0.1</v>
       </c>
-      <c r="E55" s="3">
-        <v>3.08428800905798E-2</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0.23615446975283899</v>
+      <c r="F95">
+        <v>0.13071951518251099</v>
+      </c>
+      <c r="G95">
+        <v>8.60160965794768E-2</v>
+      </c>
+      <c r="H95">
+        <v>8.7910327909133501E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>0.1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96">
+        <v>0.136037792968979</v>
+      </c>
+      <c r="G96">
+        <v>8.0985915492957694E-2</v>
+      </c>
+      <c r="H96">
+        <v>9.4561228726849994E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>0.1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97">
+        <v>8.4154387386670595E-2</v>
+      </c>
+      <c r="G97">
+        <v>4.1750503018108599E-2</v>
+      </c>
+      <c r="H97">
+        <v>0.100248659666337</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>0.5</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="F98">
+        <v>6.6926500775120495E-2</v>
+      </c>
+      <c r="G98">
+        <v>2.3390342052313801E-2</v>
+      </c>
+      <c r="H98">
+        <v>0.15927873322300301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>0.5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99">
+        <v>6.6629002234683696E-2</v>
+      </c>
+      <c r="G99">
+        <v>2.6156941649899301E-2</v>
+      </c>
+      <c r="H99">
+        <v>0.19058095408293901</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>0.5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100">
+        <v>4.2137457704761502E-2</v>
+      </c>
+      <c r="G100">
+        <v>1.1569416498993901E-2</v>
+      </c>
+      <c r="H100">
+        <v>0.191994871029874</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>6.1637138844902503E-2</v>
+      </c>
+      <c r="G101">
+        <v>1.9491951710261499E-2</v>
+      </c>
+      <c r="H101">
+        <v>0.17209849372731201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102">
+        <v>6.0631711418556798E-2</v>
+      </c>
+      <c r="G102">
+        <v>2.28873239436619E-2</v>
+      </c>
+      <c r="H102">
+        <v>0.20744311873744001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103">
+        <v>3.98777566094606E-2</v>
+      </c>
+      <c r="G103">
+        <v>1.0563380281690101E-2</v>
+      </c>
+      <c r="H103">
+        <v>0.20065689534395301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>1.5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104">
+        <v>1.49999999999999</v>
+      </c>
+      <c r="F104">
+        <v>5.2537356050543098E-2</v>
+      </c>
+      <c r="G104">
+        <v>1.03118712273641E-2</v>
+      </c>
+      <c r="H104">
+        <v>0.18867034765256399</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>3</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>1.5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105">
+        <v>4.7377439666828502E-2</v>
+      </c>
+      <c r="G105">
+        <v>1.28269617706237E-2</v>
+      </c>
+      <c r="H105">
+        <v>0.22939538735677401</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>1.5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106">
+        <v>3.2640428939937599E-2</v>
+      </c>
+      <c r="G106">
+        <v>6.5392354124748399E-3</v>
+      </c>
+      <c r="H106">
+        <v>0.21850828159931801</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107">
+        <v>1.99999999999999</v>
+      </c>
+      <c r="F107">
+        <v>4.9393639438516698E-2</v>
+      </c>
+      <c r="G107">
+        <v>9.0543259557343998E-3</v>
+      </c>
+      <c r="H107">
+        <v>0.19762671524012301</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108">
+        <v>4.34120585340955E-2</v>
+      </c>
+      <c r="G108">
+        <v>1.00603621730382E-2</v>
+      </c>
+      <c r="H108">
+        <v>0.240583963640781</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109">
+        <v>2.7123613292563301E-2</v>
+      </c>
+      <c r="G109">
+        <v>2.51509054325955E-3</v>
+      </c>
+      <c r="H109">
+        <v>0.23249002454254999</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\OneDrive - The Ohio State University\research\OSU\2021-07 Differential privacy\privacy-framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A212C7C3-6B39-4996-8088-BC363D9F597A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4432D4C-DEC1-4450-AD2F-C784135ED4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="19">
   <si>
     <t>predicate</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>u</t>
+  </si>
+  <si>
+    <t>lambda</t>
   </si>
 </sst>
 </file>
@@ -240,7 +243,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0" dataDxfId="12">
   <autoFilter ref="A1:G19" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E93EEBB1-1ABA-4614-9534-4025000E8E79}" name="k" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{E93EEBB1-1ABA-4614-9534-4025000E8E79}" name="lambda" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{C5F5D603-C33F-4A2A-A480-A7622661CA75}" name="coverage" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{57777C39-F7C0-470F-9909-328B2220997B}" name="predicate" dataDxfId="9"/>
     <tableColumn id="7" xr3:uid="{0831C762-6C93-46E2-86CB-6BA872CA0846}" name="p_mape" dataDxfId="8"/>
@@ -256,7 +259,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{59AF9031-C006-404D-8250-2B128413C736}" name="Table4" displayName="Table4" ref="A1:H109" totalsRowShown="0">
   <autoFilter ref="A1:H109" xr:uid="{59AF9031-C006-404D-8250-2B128413C736}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F5D0B863-4943-4DCE-A0AA-576A45FA1EF6}" name="k"/>
+    <tableColumn id="1" xr3:uid="{F5D0B863-4943-4DCE-A0AA-576A45FA1EF6}" name="lambda"/>
     <tableColumn id="2" xr3:uid="{F5E81DB3-E4D4-487D-9DA8-6F21DD906986}" name="coverage"/>
     <tableColumn id="3" xr3:uid="{2FD9EF43-7D1D-4E75-9218-B6FC0B9F80CF}" name="u"/>
     <tableColumn id="6" xr3:uid="{782B4395-A5A1-43E9-982A-37E2CAEFAC07}" name="predicate" dataDxfId="4"/>
@@ -647,13 +650,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A301A827-400A-476B-933A-196F997189D0}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="12.6328125" customWidth="1"/>
     <col min="3" max="3" width="12.36328125" customWidth="1"/>
     <col min="4" max="4" width="13.08984375" customWidth="1"/>
@@ -664,7 +665,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1089,13 +1090,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836B1424-F873-4785-84D3-2D104A420DD8}">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.90625" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
     <col min="2" max="2" width="11.6328125" customWidth="1"/>
     <col min="3" max="3" width="10.26953125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
@@ -1104,7 +1103,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\OneDrive - The Ohio State University\research\OSU\2021-07 Differential privacy\privacy-framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4432D4C-DEC1-4450-AD2F-C784135ED4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BCE748-E6DD-4324-ADF0-733D6E78F5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="4" r:id="rId1"/>
     <sheet name="set coverage" sheetId="2" r:id="rId2"/>
     <sheet name="max coverage" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="19">
   <si>
     <t>predicate</t>
   </si>
@@ -141,7 +142,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
@@ -216,12 +220,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}" name="Table2" displayName="Table2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}" name="Table2" displayName="Table2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:C4" xr:uid="{B4BA8DAF-2251-4B38-9CEF-F9F0C6EA0C1F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6B71ADEB-FDAE-4E40-A387-1B9FD5672593}" name="predicate" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{37CA440C-D3F1-493D-BC1E-A42480293A62}" name="risk-1" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{CB1FBEE8-7F44-4CFA-8FF3-31D6226794E1}" name="risk-2" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{6B71ADEB-FDAE-4E40-A387-1B9FD5672593}" name="predicate" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{37CA440C-D3F1-493D-BC1E-A42480293A62}" name="risk-1" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{CB1FBEE8-7F44-4CFA-8FF3-31D6226794E1}" name="risk-2" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -240,16 +244,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A1:G19" xr:uid="{8915D17A-4946-496A-96A4-A3105FE7CE4B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E93EEBB1-1ABA-4614-9534-4025000E8E79}" name="lambda" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{C5F5D603-C33F-4A2A-A480-A7622661CA75}" name="coverage" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{57777C39-F7C0-470F-9909-328B2220997B}" name="predicate" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{0831C762-6C93-46E2-86CB-6BA872CA0846}" name="p_mape" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{B1DB2743-AFA5-4F21-8A6A-E67F628495F4}" name="risk_1" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{03BB7C5E-3C1C-4E8B-BC60-8638B6C6016C}" name="risk_2" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{FE9DF15E-3794-4150-86AA-BE691124EBA1}" name="smape" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{E93EEBB1-1ABA-4614-9534-4025000E8E79}" name="lambda" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{C5F5D603-C33F-4A2A-A480-A7622661CA75}" name="coverage" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{57777C39-F7C0-470F-9909-328B2220997B}" name="predicate" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{0831C762-6C93-46E2-86CB-6BA872CA0846}" name="p_mape" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{B1DB2743-AFA5-4F21-8A6A-E67F628495F4}" name="risk_1" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{03BB7C5E-3C1C-4E8B-BC60-8638B6C6016C}" name="risk_2" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{FE9DF15E-3794-4150-86AA-BE691124EBA1}" name="smape" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -262,11 +266,24 @@
     <tableColumn id="1" xr3:uid="{F5D0B863-4943-4DCE-A0AA-576A45FA1EF6}" name="lambda"/>
     <tableColumn id="2" xr3:uid="{F5E81DB3-E4D4-487D-9DA8-6F21DD906986}" name="coverage"/>
     <tableColumn id="3" xr3:uid="{2FD9EF43-7D1D-4E75-9218-B6FC0B9F80CF}" name="u"/>
-    <tableColumn id="6" xr3:uid="{782B4395-A5A1-43E9-982A-37E2CAEFAC07}" name="predicate" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{C43AB37C-685F-4E74-A37A-2C3D0E815DA8}" name="p_mape" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{C3A7C78B-879A-4F82-BBA2-13CB6A0187EE}" name="risk_1" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{6A2AA3C3-448F-497B-87BF-2195BBEF9EBD}" name="risk_2" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{4EF3F069-95C9-4C0C-B801-C9323CC8A465}" name="smape" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{782B4395-A5A1-43E9-982A-37E2CAEFAC07}" name="predicate" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{C43AB37C-685F-4E74-A37A-2C3D0E815DA8}" name="p_mape" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C3A7C78B-879A-4F82-BBA2-13CB6A0187EE}" name="risk_1" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{6A2AA3C3-448F-497B-87BF-2195BBEF9EBD}" name="risk_2" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{4EF3F069-95C9-4C0C-B801-C9323CC8A465}" name="smape" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B1EFC936-9CB5-49A7-B590-A466211D2C83}" name="Table44" displayName="Table44" ref="A1:D37" totalsRowShown="0">
+  <autoFilter ref="A1:D37" xr:uid="{B1EFC936-9CB5-49A7-B590-A466211D2C83}"/>
+  <tableColumns count="4">
+    <tableColumn id="2" xr3:uid="{CA7D5057-88C0-4101-AD7B-3614C675AAF2}" name="coverage"/>
+    <tableColumn id="1" xr3:uid="{E8195906-2805-4ABB-BFC5-BF3B73A7BA4B}" name="lambda"/>
+    <tableColumn id="3" xr3:uid="{A8E27734-3798-4AAA-80C8-56188A8790D0}" name="u"/>
+    <tableColumn id="4" xr3:uid="{60C84843-52B5-4ABD-805A-31BF1543DD2E}" name="p_mape" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -650,7 +667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A301A827-400A-476B-933A-196F997189D0}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1090,7 +1109,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836B1424-F873-4785-84D3-2D104A420DD8}">
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:H109"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3726,4 +3747,540 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8478FE-F2E6-4AD0-8F9D-3314ED66986D}">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.05</v>
+      </c>
+      <c r="D2">
+        <v>4.9999999999999899E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>9.9951639149678098E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0.449154201872071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.449154201872071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+      <c r="D6">
+        <v>0.449154201872071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0.449154201872071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>5.00000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1.5</v>
+      </c>
+      <c r="D12">
+        <v>1.49999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1.52987363798049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0.05</v>
+      </c>
+      <c r="D14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>0.1</v>
+      </c>
+      <c r="D15">
+        <v>9.9999999999999603E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>0.500000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>1.5</v>
+      </c>
+      <c r="D18">
+        <v>1.49999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1.99999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0.05</v>
+      </c>
+      <c r="D20">
+        <v>4.9999999999999899E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0.1</v>
+      </c>
+      <c r="D21">
+        <v>9.9999999999999895E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0.5</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1.5</v>
+      </c>
+      <c r="D24">
+        <v>1.49999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1.99999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>0.05</v>
+      </c>
+      <c r="D26">
+        <v>5.00000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0.1</v>
+      </c>
+      <c r="D27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+      <c r="D28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1.5</v>
+      </c>
+      <c r="D30">
+        <v>1.49999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1.99999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>0.05</v>
+      </c>
+      <c r="D32">
+        <v>4.9999999999999899E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>0.1</v>
+      </c>
+      <c r="D33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>0.5</v>
+      </c>
+      <c r="D34">
+        <v>0.500000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>1.5</v>
+      </c>
+      <c r="D36">
+        <v>1.49999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1.99999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>